--- a/ch2/resource/scores.xlsx
+++ b/ch2/resource/scores.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="14850" windowHeight="7185" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -128,93 +134,439 @@
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>출석</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <val>
             <numRef>
-              <f>'Sheet'!$B$2:$B$11</f>
+              <f>Sheet!$B$2:$B$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>10</v>
+                </pt>
+                <pt idx="1">
+                  <v>7</v>
+                </pt>
+                <pt idx="2">
+                  <v>9</v>
+                </pt>
+                <pt idx="3">
+                  <v>7</v>
+                </pt>
+                <pt idx="4">
+                  <v>7</v>
+                </pt>
+                <pt idx="5">
+                  <v>3</v>
+                </pt>
+                <pt idx="6">
+                  <v>4</v>
+                </pt>
+                <pt idx="7">
+                  <v>6</v>
+                </pt>
+                <pt idx="8">
+                  <v>10</v>
+                </pt>
+                <pt idx="9">
+                  <v>9</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <ser>
           <idx val="1"/>
           <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>퀴즈1</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <val>
             <numRef>
-              <f>'Sheet'!$C$2:$C$11</f>
+              <f>Sheet!$C$2:$C$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>8</v>
+                </pt>
+                <pt idx="1">
+                  <v>3</v>
+                </pt>
+                <pt idx="2">
+                  <v>5</v>
+                </pt>
+                <pt idx="3">
+                  <v>8</v>
+                </pt>
+                <pt idx="4">
+                  <v>8</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>9</v>
+                </pt>
+                <pt idx="7">
+                  <v>6</v>
+                </pt>
+                <pt idx="8">
+                  <v>10</v>
+                </pt>
+                <pt idx="9">
+                  <v>8</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <ser>
           <idx val="2"/>
           <order val="2"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>퀴즈2</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <val>
             <numRef>
-              <f>'Sheet'!$D$2:$D$11</f>
+              <f>Sheet!$D$2:$D$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>10</v>
+                </pt>
+                <pt idx="1">
+                  <v>10</v>
+                </pt>
+                <pt idx="2">
+                  <v>10</v>
+                </pt>
+                <pt idx="3">
+                  <v>10</v>
+                </pt>
+                <pt idx="4">
+                  <v>10</v>
+                </pt>
+                <pt idx="5">
+                  <v>10</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>10</v>
+                </pt>
+                <pt idx="8">
+                  <v>10</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <ser>
           <idx val="3"/>
           <order val="3"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>중간고사</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <val>
             <numRef>
-              <f>'Sheet'!$E$2:$E$11</f>
+              <f>Sheet!$E$2:$E$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>14</v>
+                </pt>
+                <pt idx="1">
+                  <v>15</v>
+                </pt>
+                <pt idx="2">
+                  <v>8</v>
+                </pt>
+                <pt idx="3">
+                  <v>17</v>
+                </pt>
+                <pt idx="4">
+                  <v>16</v>
+                </pt>
+                <pt idx="5">
+                  <v>8</v>
+                </pt>
+                <pt idx="6">
+                  <v>16</v>
+                </pt>
+                <pt idx="7">
+                  <v>15</v>
+                </pt>
+                <pt idx="8">
+                  <v>19</v>
+                </pt>
+                <pt idx="9">
+                  <v>20</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <ser>
           <idx val="4"/>
           <order val="4"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>기말고사</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <val>
             <numRef>
-              <f>'Sheet'!$F$2:$F$11</f>
+              <f>Sheet!$F$2:$F$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>26</v>
+                </pt>
+                <pt idx="1">
+                  <v>24</v>
+                </pt>
+                <pt idx="2">
+                  <v>12</v>
+                </pt>
+                <pt idx="3">
+                  <v>21</v>
+                </pt>
+                <pt idx="4">
+                  <v>25</v>
+                </pt>
+                <pt idx="5">
+                  <v>17</v>
+                </pt>
+                <pt idx="6">
+                  <v>27</v>
+                </pt>
+                <pt idx="7">
+                  <v>19</v>
+                </pt>
+                <pt idx="8">
+                  <v>30</v>
+                </pt>
+                <pt idx="9">
+                  <v>25</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <ser>
           <idx val="5"/>
           <order val="5"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>프로젝트</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <val>
             <numRef>
-              <f>'Sheet'!$G$2:$G$11</f>
+              <f>Sheet!$G$2:$G$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>12</v>
+                </pt>
+                <pt idx="1">
+                  <v>18</v>
+                </pt>
+                <pt idx="2">
+                  <v>4</v>
+                </pt>
+                <pt idx="3">
+                  <v>18</v>
+                </pt>
+                <pt idx="4">
+                  <v>15</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>18</v>
+                </pt>
+                <pt idx="7">
+                  <v>17</v>
+                </pt>
+                <pt idx="8">
+                  <v>19</v>
+                </pt>
+                <pt idx="9">
+                  <v>20</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>Sheet!$H$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>총점</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <val>
+            <numRef>
+              <f>Sheet!$H$2:$H$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>80</v>
+                </pt>
+                <pt idx="1">
+                  <v>77</v>
+                </pt>
+                <pt idx="2">
+                  <v>48</v>
+                </pt>
+                <pt idx="3">
+                  <v>81</v>
+                </pt>
+                <pt idx="4">
+                  <v>81</v>
+                </pt>
+                <pt idx="5">
+                  <v>43</v>
+                </pt>
+                <pt idx="6">
+                  <v>84</v>
+                </pt>
+                <pt idx="7">
+                  <v>73</v>
+                </pt>
+                <pt idx="8">
+                  <v>98</v>
+                </pt>
+                <pt idx="9">
+                  <v>92</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -224,26 +576,39 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="r"/>
+      <layout/>
+      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -261,827 +626,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$2:$D$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$E$2:$E$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$F$2:$F$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$G$2:$G$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$H$2:$H$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$3:$B$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$3:$C$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!D2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$3:$D$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!E2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$E$3:$E$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!F2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$F$3:$F$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!G2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$G$3:$G$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!H2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$H$3:$H$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!A1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$A$2:$A$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$2:$D$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$E$2:$E$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$F$2:$F$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$G$2:$G$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$H$2:$H$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!A2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$A$3:$A$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$3:$B$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$3:$C$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!D2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$3:$D$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!E2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$E$3:$E$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!F2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$F$3:$F$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!G2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$G$3:$G$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!H2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$H$3:$H$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$2:$D$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$E$2:$E$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$F$2:$F$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet'!$G$2:$G$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
           <tx>
             <strRef>
               <f>'Sheet'!H1</f>
@@ -1175,94 +719,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="5" name="Chart 5"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="6" name="Chart 6"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1562,11 +1018,11 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1638,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <f>sum(B2:G2)</f>
+        <f>SUM(B2:G2)</f>
         <v/>
       </c>
       <c r="I2" t="inlineStr">
@@ -1670,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="H3">
-        <f>sum(B3:G3)</f>
+        <f>SUM(B3:G3)</f>
         <v/>
       </c>
       <c r="I3" t="inlineStr">
@@ -1702,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <f>sum(B4:G4)</f>
+        <f>SUM(B4:G4)</f>
         <v/>
       </c>
       <c r="I4" t="inlineStr">
@@ -1734,7 +1190,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <f>sum(B5:G5)</f>
+        <f>SUM(B5:G5)</f>
         <v/>
       </c>
       <c r="I5" t="inlineStr">
@@ -1766,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <f>sum(B6:G6)</f>
+        <f>SUM(B6:G6)</f>
         <v/>
       </c>
       <c r="I6" t="inlineStr">
@@ -1798,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>sum(B7:G7)</f>
+        <f>SUM(B7:G7)</f>
         <v/>
       </c>
       <c r="I7" t="inlineStr">
@@ -1830,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="H8">
-        <f>sum(B8:G8)</f>
+        <f>SUM(B8:G8)</f>
         <v/>
       </c>
       <c r="I8" t="inlineStr">
@@ -1862,7 +1318,7 @@
         <v>17</v>
       </c>
       <c r="H9">
-        <f>sum(B9:G9)</f>
+        <f>SUM(B9:G9)</f>
         <v/>
       </c>
       <c r="I9" t="inlineStr">
@@ -1894,7 +1350,7 @@
         <v>19</v>
       </c>
       <c r="H10">
-        <f>sum(B10:G10)</f>
+        <f>SUM(B10:G10)</f>
         <v/>
       </c>
       <c r="I10" t="inlineStr">
@@ -1926,7 +1382,7 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <f>sum(B11:G11)</f>
+        <f>SUM(B11:G11)</f>
         <v/>
       </c>
       <c r="I11" t="inlineStr">
@@ -1937,6 +1393,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>